--- a/exercices/exercices_gini_afc2022 (version 1).xlsx
+++ b/exercices/exercices_gini_afc2022 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gueney\Documents\GitHub\les-mesures-de-l-conomie\exercices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1D98AC-F8E8-4578-9671-8685573E6842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22352609-0516-448B-BB79-4D3B317E3FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{0A857FEE-5B62-478B-B26F-1439DD0DBBE3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>seuil inférieur du groupe</t>
   </si>
@@ -221,9 +221,6 @@
     <t>a = b/(b-1)</t>
   </si>
   <si>
-    <t>k=s*p^(1/a)</t>
-  </si>
-  <si>
     <t>total I top group</t>
   </si>
   <si>
@@ -233,10 +230,32 @@
     <t>Part du 1%: interpolation de Pareto</t>
   </si>
   <si>
-    <t>y_bar</t>
+    <t>Part du 10%</t>
   </si>
   <si>
-    <t>Part du 10%</t>
+    <t>parametre b</t>
+  </si>
+  <si>
+    <t>coefficient de pareto</t>
+  </si>
+  <si>
+    <t>revenu moyen au dessus de p</t>
+  </si>
+  <si>
+    <t>seuil de revenu pour appartenir au percentile p</t>
+  </si>
+  <si>
+    <t>parametre k</t>
+  </si>
+  <si>
+    <t>y_bar = a/(a-1)*s</t>
+  </si>
+  <si>
+    <t>Revenu moyen au dessus du seuil</t>
+  </si>
+  <si>
+    <t>k=s*p^(1/a)
+p = share of units with income larger than s</t>
   </si>
 </sst>
 </file>
@@ -3525,16 +3544,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>760412</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1725612</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523873</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>180973</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1050923</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123823</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5643,8 +5662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988134C0-BA93-4AA9-AB60-815506C21888}">
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F12" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5652,8 +5671,12 @@
     <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="70.6328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -7315,7 +7338,7 @@
         <v>0.21471904349262805</v>
       </c>
       <c r="N33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O33" s="32">
         <f>O23+((O22-O23)*(0.1-M23))/(M22-M23)</f>
@@ -7443,6 +7466,13 @@
         <f t="shared" si="7"/>
         <v>-0.40271968167192423</v>
       </c>
+      <c r="F49" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
@@ -7453,15 +7483,26 @@
         <f t="shared" si="7"/>
         <v>-0.44523318400886275</v>
       </c>
-      <c r="F50" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" t="s">
+        <v>68</v>
+      </c>
+      <c r="I50" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="6"/>
         <v>4.8294456902556702</v>
@@ -7471,7 +7512,7 @@
         <v>-0.48873371805696725</v>
       </c>
       <c r="E51" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F51" t="s">
         <v>58</v>
@@ -7479,14 +7520,14 @@
       <c r="G51" t="s">
         <v>59</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51" t="s">
+        <v>61</v>
+      </c>
+      <c r="J51" t="s">
         <v>60</v>
-      </c>
-      <c r="I51" t="s">
-        <v>62</v>
-      </c>
-      <c r="J51" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
@@ -7511,16 +7552,16 @@
         <v>2.0152028146280223</v>
       </c>
       <c r="H52">
-        <f>A25*((D25/D30)^(1/G52))</f>
-        <v>25661.083744426138</v>
+        <f>A25*(SUM(D25:D29)/D30)^(1/G52)</f>
+        <v>36276.764969976786</v>
       </c>
       <c r="I52">
         <f>H52/(0.01^(1/G52))</f>
-        <v>252191.78301239229</v>
+        <v>356520.48568241531</v>
       </c>
       <c r="J52">
         <f>I52*F52*0.01*D32</f>
-        <v>1254345819.7927201</v>
+        <v>1773253575.2928684</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
@@ -7534,7 +7575,7 @@
       </c>
       <c r="J53">
         <f>J52/C30</f>
-        <v>7.7839347346944823E-2</v>
+        <v>0.11004054767308313</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
@@ -7928,7 +7969,7 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:Q1"/>
     <mergeCell ref="B69:C69"/>
-    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="F49:J49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/exercices/exercices_gini_afc2022 (version 1).xlsx
+++ b/exercices/exercices_gini_afc2022 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gueney\Documents\GitHub\les-mesures-de-l-conomie\exercices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22352609-0516-448B-BB79-4D3B317E3FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3270DE-90CD-44E1-88DE-5BC67520F144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{0A857FEE-5B62-478B-B26F-1439DD0DBBE3}"/>
   </bookViews>
@@ -1449,8 +1449,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11813138686131387"/>
-          <c:y val="7.1111091202494155E-3"/>
+          <c:x val="0.14780231269106453"/>
+          <c:y val="3.5148675508628678E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3545,15 +3545,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1725612</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>731837</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1050923</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>123823</xdr:rowOff>
+      <xdr:colOff>57148</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>165098</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3950,7 +3950,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4268,7 +4268,7 @@
         <v>3.5878114117738062E-4</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="5"/>
+        <f>(F7-F6)*G6</f>
         <v>1.855433322452893E-3</v>
       </c>
       <c r="L7" s="18">
@@ -4326,7 +4326,7 @@
         <v>5.328697547350499E-4</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" si="5"/>
+        <f>(F8-F7)*G7</f>
         <v>2.9191853117346307E-3</v>
       </c>
       <c r="L8" s="18">
@@ -5662,8 +5662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988134C0-BA93-4AA9-AB60-815506C21888}">
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5701,7 +5701,7 @@
       <c r="P1" s="37"/>
       <c r="Q1" s="37"/>
     </row>
-    <row r="2" spans="1:17" ht="203" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7379,7 +7379,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
-        <f t="shared" ref="A41:A65" si="6">LOG(E4)</f>
+        <f>LOG(E4)</f>
         <v>3.7722955399279523</v>
       </c>
       <c r="B41">
@@ -7389,7 +7389,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A41:A65" si="6">LOG(E5)</f>
         <v>4.3556337674688406</v>
       </c>
       <c r="B42">

--- a/exercices/exercices_gini_afc2022 (version 1).xlsx
+++ b/exercices/exercices_gini_afc2022 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gueney\Documents\GitHub\les-mesures-de-l-conomie\exercices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3270DE-90CD-44E1-88DE-5BC67520F144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BA26D5-3FD1-4D28-B0AC-8E78E8D42688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{0A857FEE-5B62-478B-B26F-1439DD0DBBE3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
   <si>
     <t>seuil inférieur du groupe</t>
   </si>
@@ -248,14 +248,20 @@
     <t>parametre k</t>
   </si>
   <si>
-    <t>y_bar = a/(a-1)*s</t>
-  </si>
-  <si>
     <t>Revenu moyen au dessus du seuil</t>
   </si>
   <si>
     <t>k=s*p^(1/a)
 p = share of units with income larger than s</t>
+  </si>
+  <si>
+    <t>Courbe de Pareto généralisée</t>
+  </si>
+  <si>
+    <t>y_bar</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -1900,6 +1906,329 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>GE!$C$42:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4.3584996540295551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6402569399845226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1806448261092006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8394318453491825</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5933019786596772</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.411725711510337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2751240450091625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1692469761251427</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0943357688112751</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0330899583158133</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9851410034509811</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9491247659237145</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9188422602280655</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8948589154376834</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8762513164086541</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8608310728673341</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8480534787972884</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8216032069215562</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8127802128170754</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8595223966159504</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9850248498044278</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1176756766301126</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2641516038807001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8419611759760439</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D2F-4BD6-BC91-F3700C5C9995}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1908926736"/>
+        <c:axId val="1908925296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1908926736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1908925296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1908925296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1908926736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr/>
@@ -2433,6 +2762,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3504,6 +3873,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3544,16 +4429,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>731837</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>487362</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>57148</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>165098</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2676523</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3573,6 +4458,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>163512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3724275</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7AA844B-A7D5-E531-1693-992E712BAABE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5662,8 +6583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988134C0-BA93-4AA9-AB60-815506C21888}">
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7368,6 +8289,9 @@
         <v>52</v>
       </c>
       <c r="B39" s="38"/>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
@@ -7386,15 +8310,23 @@
         <f xml:space="preserve"> LOG(1-F4)</f>
         <v>-0.14348627768580327</v>
       </c>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
-        <f t="shared" ref="A41:A65" si="6">LOG(E5)</f>
+        <f t="shared" ref="A42:A65" si="6">LOG(E5)</f>
         <v>4.3556337674688406</v>
       </c>
       <c r="B42">
         <f t="shared" ref="B42:B65" si="7" xml:space="preserve"> LOG(1-F5)</f>
         <v>-0.16857623963281418</v>
+      </c>
+      <c r="C42">
+        <f>(SUM(C5:$C$29)/SUM(D5:$D$29))/A5</f>
+        <v>4.3584996540295551</v>
+      </c>
+      <c r="D42" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -7406,6 +8338,14 @@
         <f t="shared" si="7"/>
         <v>-0.19779924270011631</v>
       </c>
+      <c r="C43">
+        <f>(SUM(C6:$C$29)/SUM(D6:$D$29))/A6</f>
+        <v>3.6402569399845226</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:D65" si="8">RANK(C43, $C$42:$C$65, 1)</f>
+        <v>23</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44">
@@ -7416,6 +8356,14 @@
         <f t="shared" si="7"/>
         <v>-0.22435184467592204</v>
       </c>
+      <c r="C44">
+        <f>(SUM(C7:$C$29)/SUM(D7:$D$29))/A7</f>
+        <v>3.1806448261092006</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45">
@@ -7426,6 +8374,14 @@
         <f t="shared" si="7"/>
         <v>-0.25392300720752736</v>
       </c>
+      <c r="C45">
+        <f>(SUM(C8:$C$29)/SUM(D8:$D$29))/A8</f>
+        <v>2.8394318453491825</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
@@ -7436,6 +8392,14 @@
         <f t="shared" si="7"/>
         <v>-0.28671436190716915</v>
       </c>
+      <c r="C46">
+        <f>(SUM(C9:$C$29)/SUM(D9:$D$29))/A9</f>
+        <v>2.5933019786596772</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
@@ -7446,6 +8410,14 @@
         <f t="shared" si="7"/>
         <v>-0.32247658683007402</v>
       </c>
+      <c r="C47">
+        <f>(SUM(C10:$C$29)/SUM(D10:$D$29))/A10</f>
+        <v>2.411725711510337</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
@@ -7456,6 +8428,14 @@
         <f xml:space="preserve"> LOG(1-F11)</f>
         <v>-0.36019297580706788</v>
       </c>
+      <c r="C48">
+        <f>(SUM(C11:$C$29)/SUM(D11:$D$29))/A11</f>
+        <v>2.2751240450091625</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
@@ -7466,6 +8446,14 @@
         <f t="shared" si="7"/>
         <v>-0.40271968167192423</v>
       </c>
+      <c r="C49">
+        <f>(SUM(C12:$C$29)/SUM(D12:$D$29))/A12</f>
+        <v>2.1692469761251427</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
       <c r="F49" s="38" t="s">
         <v>62</v>
       </c>
@@ -7483,8 +8471,16 @@
         <f t="shared" si="7"/>
         <v>-0.44523318400886275</v>
       </c>
+      <c r="C50">
+        <f>(SUM(C13:$C$29)/SUM(D13:$D$29))/A13</f>
+        <v>2.0943357688112751</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
       <c r="E50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F50" t="s">
         <v>64</v>
@@ -7511,8 +8507,16 @@
         <f t="shared" si="7"/>
         <v>-0.48873371805696725</v>
       </c>
+      <c r="C51">
+        <f>(SUM(C14:$C$29)/SUM(D14:$D$29))/A14</f>
+        <v>2.0330899583158133</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
       <c r="E51" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F51" t="s">
         <v>58</v>
@@ -7521,7 +8525,7 @@
         <v>59</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I51" t="s">
         <v>61</v>
@@ -7539,6 +8543,14 @@
         <f t="shared" si="7"/>
         <v>-0.53355581515285122</v>
       </c>
+      <c r="C52">
+        <f>(SUM(C15:$C$29)/SUM(D15:$D$29))/A15</f>
+        <v>1.9851410034509811</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
       <c r="E52">
         <f>SUM(C25:C29)/SUM(D25:D29)</f>
         <v>595509.43996617815</v>
@@ -7573,6 +8585,14 @@
         <f t="shared" si="7"/>
         <v>-0.5775706703629786</v>
       </c>
+      <c r="C53">
+        <f>(SUM(C16:$C$29)/SUM(D16:$D$29))/A16</f>
+        <v>1.9491247659237145</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
       <c r="J53">
         <f>J52/C30</f>
         <v>0.11004054767308313</v>
@@ -7587,6 +8607,14 @@
         <f t="shared" si="7"/>
         <v>-0.6214935843787982</v>
       </c>
+      <c r="C54">
+        <f>(SUM(C17:$C$29)/SUM(D17:$D$29))/A17</f>
+        <v>1.9188422602280655</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
@@ -7597,6 +8625,14 @@
         <f t="shared" si="7"/>
         <v>-0.66528184659785017</v>
       </c>
+      <c r="C55">
+        <f>(SUM(C18:$C$29)/SUM(D18:$D$29))/A18</f>
+        <v>1.8948589154376834</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
@@ -7607,6 +8643,14 @@
         <f t="shared" si="7"/>
         <v>-0.70811319938648543</v>
       </c>
+      <c r="C56">
+        <f>(SUM(C19:$C$29)/SUM(D19:$D$29))/A19</f>
+        <v>1.8762513164086541</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
@@ -7617,6 +8661,14 @@
         <f t="shared" si="7"/>
         <v>-0.75001421149432579</v>
       </c>
+      <c r="C57">
+        <f>(SUM(C20:$C$29)/SUM(D20:$D$29))/A20</f>
+        <v>1.8608310728673341</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
@@ -7627,6 +8679,14 @@
         <f t="shared" si="7"/>
         <v>-0.9107223451647557</v>
       </c>
+      <c r="C58">
+        <f>(SUM(C21:$C$29)/SUM(D21:$D$29))/A21</f>
+        <v>1.8480534787972884</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
@@ -7637,6 +8697,14 @@
         <f t="shared" si="7"/>
         <v>-1.1218845185959989</v>
       </c>
+      <c r="C59">
+        <f>(SUM(C22:$C$29)/SUM(D22:$D$29))/A22</f>
+        <v>1.8216032069215562</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
@@ -7647,6 +8715,14 @@
         <f t="shared" si="7"/>
         <v>-1.4214711793857677</v>
       </c>
+      <c r="C60">
+        <f>(SUM(C23:$C$29)/SUM(D23:$D$29))/A23</f>
+        <v>1.8127802128170754</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
@@ -7657,6 +8733,14 @@
         <f t="shared" si="7"/>
         <v>-1.8489367956084217</v>
       </c>
+      <c r="C61">
+        <f>(SUM(C24:$C$29)/SUM(D24:$D$29))/A24</f>
+        <v>1.8595223966159504</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62">
@@ -7667,6 +8751,14 @@
         <f t="shared" si="7"/>
         <v>-2.148012707067251</v>
       </c>
+      <c r="C62">
+        <f>(SUM(C25:$C$29)/SUM(D25:$D$29))/A25</f>
+        <v>1.9850248498044278</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63">
@@ -7677,6 +8769,14 @@
         <f t="shared" si="7"/>
         <v>-2.380219908101866</v>
       </c>
+      <c r="C63">
+        <f>(SUM(C26:$C$29)/SUM(D26:$D$29))/A26</f>
+        <v>2.1176756766301126</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64">
@@ -7687,8 +8787,16 @@
         <f t="shared" si="7"/>
         <v>-3.0506155437199589</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C64">
+        <f>(SUM(C27:$C$29)/SUM(D27:$D$29))/A27</f>
+        <v>2.2641516038807001</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="6"/>
         <v>6.1265719146621898</v>
@@ -7697,14 +8805,22 @@
         <f t="shared" si="7"/>
         <v>-3.6135905717572601</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C65">
+        <f>(SUM(C28:$C$29)/SUM(D28:$D$29))/A28</f>
+        <v>2.8419611759760439</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B69" s="38" t="s">
         <v>52</v>
       </c>
       <c r="C69" s="38"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>54</v>
       </c>
@@ -7712,7 +8828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B71">
         <f>LOG(A5)</f>
         <v>4.3010517098452263</v>
@@ -7722,233 +8838,233 @@
         <v>-0.16857623963281418</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B72">
-        <f t="shared" ref="B72:B94" si="8">LOG(A6)</f>
+        <f t="shared" ref="B72:B94" si="9">LOG(A6)</f>
         <v>4.3979573801038878</v>
       </c>
       <c r="C72">
-        <f t="shared" ref="C72:C94" si="9">LOG(1-F6)</f>
+        <f t="shared" ref="C72:C94" si="10">LOG(1-F6)</f>
         <v>-0.19779924270011631</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.4771357309611233</v>
       </c>
       <c r="C73">
+        <f t="shared" si="10"/>
+        <v>-0.22435184467592204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B74">
         <f t="shared" si="9"/>
-        <v>-0.22435184467592204</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B74">
-        <f t="shared" si="8"/>
         <v>4.5440804525867851</v>
       </c>
       <c r="C74">
+        <f t="shared" si="10"/>
+        <v>-0.25392300720752736</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B75">
         <f t="shared" si="9"/>
-        <v>-0.25392300720752736</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B75">
-        <f t="shared" si="8"/>
         <v>4.6020708485542956</v>
       </c>
       <c r="C75">
+        <f t="shared" si="10"/>
+        <v>-0.28671436190716915</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B76">
         <f t="shared" si="9"/>
-        <v>-0.28671436190716915</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B76">
-        <f t="shared" si="8"/>
         <v>4.653222164656599</v>
       </c>
       <c r="C76">
+        <f t="shared" si="10"/>
+        <v>-0.32247658683007402</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B77">
         <f t="shared" si="9"/>
-        <v>-0.32247658683007402</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B77">
-        <f t="shared" si="8"/>
         <v>4.6989786901387989</v>
       </c>
       <c r="C77">
+        <f t="shared" si="10"/>
+        <v>-0.36019297580706788</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B78">
         <f t="shared" si="9"/>
-        <v>-0.36019297580706788</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B78">
-        <f t="shared" si="8"/>
         <v>4.7403705856857679</v>
       </c>
       <c r="C78">
+        <f t="shared" si="10"/>
+        <v>-0.40271968167192423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B79">
         <f t="shared" si="9"/>
-        <v>-0.40271968167192423</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B79">
-        <f t="shared" si="8"/>
         <v>4.7781584885646904</v>
       </c>
       <c r="C79">
+        <f t="shared" si="10"/>
+        <v>-0.44523318400886275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B80">
         <f t="shared" si="9"/>
-        <v>-0.44523318400886275</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B80">
-        <f t="shared" si="8"/>
         <v>4.8129200380450277</v>
       </c>
       <c r="C80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.48873371805696725</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8451042441768255</v>
       </c>
       <c r="C81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.53355581515285122</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8750670539461884</v>
       </c>
       <c r="C82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.5775706703629786</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.9030954156390383</v>
       </c>
       <c r="C83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.6214935843787982</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.9294240350310838</v>
       </c>
       <c r="C84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.66528184659785017</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.9542473349067597</v>
       </c>
       <c r="C85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.70811319938648543</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.9777281767856492</v>
       </c>
       <c r="C86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.75001421149432579</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.0000043429231047</v>
       </c>
       <c r="C87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.9107223451647557</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.0791848651532279</v>
       </c>
       <c r="C88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.1218845185959989</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.176094154342576</v>
       </c>
       <c r="C89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.4214711793857677</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3010321671309617</v>
       </c>
       <c r="C90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.8489367956084217</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4771227023655227</v>
       </c>
       <c r="C91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.148012707067251</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.6020610770628103</v>
       </c>
       <c r="C92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.380219908101866</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.6989708729241144</v>
       </c>
       <c r="C93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-3.0506155437199589</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.0000004342942646</v>
       </c>
       <c r="C94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-3.6135905717572601</v>
       </c>
     </row>
